--- a/Results/Notebook 3 Similarity/Scores/problem_1_scores.xlsx
+++ b/Results/Notebook 3 Similarity/Scores/problem_1_scores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.01264739715346474</v>
+        <v>0.01168537388324469</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05007197194263056</v>
+        <v>0.05127383665300928</v>
       </c>
     </row>
     <row r="3">
@@ -471,10 +471,10 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.07404424636763071</v>
+        <v>0.07226372149614482</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08215819335192757</v>
+        <v>0.09497099886898824</v>
       </c>
     </row>
     <row r="4">
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08942848310751148</v>
+        <v>0.08210775098986554</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.05180676096578436</v>
+        <v>0.0564290864261125</v>
       </c>
     </row>
     <row r="5">
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.604577973453997</v>
+        <v>0.6391606537483809</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5318321814130069</v>
+        <v>0.5008755618547541</v>
       </c>
     </row>
     <row r="6">
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.9599603482902035</v>
+        <v>0.9542407599495295</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9012341459683746</v>
+        <v>0.906915053152735</v>
       </c>
     </row>
     <row r="7">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.8678490946588288</v>
+        <v>0.9496574571092881</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8565698365350738</v>
+        <v>0.7969969073460706</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.635130614235064</v>
+        <v>0.7119921400426712</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5712656590970296</v>
+        <v>0.4999629988120595</v>
       </c>
     </row>
     <row r="9">
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.004377782344818115</v>
+        <v>0.003900811076164246</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0305788516998291</v>
+        <v>0.03246632099151611</v>
       </c>
     </row>
     <row r="10">
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.8406617951550688</v>
+        <v>0.8478399931966736</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7610067280450202</v>
+        <v>0.763430302268425</v>
       </c>
     </row>
   </sheetData>
